--- a/biology/Botanique/Hydropteris/Hydropteris.xlsx
+++ b/biology/Botanique/Hydropteris/Hydropteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydropteris pinnata
 Hydropteris est un genre éteint de fougères aquatiques (ordre des Hydropteridales) datant du Crétacé supérieur. Hydropteris pinnata est la seule espèce de ce genre. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle présentait des caractéristiques de Marsileaceae au niveau de l'appareil végétatif, mais aussi de Salviniaceae au niveau de l'appareil reproducteur. Ce genre est à l'origine du nom de l'ordre des Hydropteridales.
 </t>
@@ -543,9 +557,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fossilworks[2], Hydropteris pinnata est datée du Maastrichtien supérieur, il y a environ entre 70,6 et 66 Ma (millions d'années). L'espèce pourrait donc avoir disparu lors le l'extinction Crétacé-Tertiaire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fossilworks, Hydropteris pinnata est datée du Maastrichtien supérieur, il y a environ entre 70,6 et 66 Ma (millions d'années). L'espèce pourrait donc avoir disparu lors le l'extinction Crétacé-Tertiaire.
 </t>
         </is>
       </c>
